--- a/DAL/Datasets/data1Dummy.xlsx
+++ b/DAL/Datasets/data1Dummy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stancu Mihai\Desktop\DatasetsLicenta\datasetTestDummies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munca\Licenta\backend\Licenta_2022_Backend\DAL\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9B897B-9217-4785-93D5-70F55867A814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552F2E6-3554-43AC-977B-E2A5C0167C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14000" xr2:uid="{E9678AE1-004A-4609-8B42-CEE7D1E4DB7B}"/>
+    <workbookView xWindow="-25710" yWindow="-1620" windowWidth="25820" windowHeight="15620" xr2:uid="{E9678AE1-004A-4609-8B42-CEE7D1E4DB7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>nm0063086</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>actor</t>
-  </si>
-  <si>
-    <t>tt0000009,tt0020403,tt0020355,tt0021535</t>
   </si>
   <si>
     <t>movieId's</t>
@@ -496,7 +493,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -565,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
